--- a/Proj_sample_data.xlsx
+++ b/Proj_sample_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thunder\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE20A02E-9766-41D6-880A-EF8BEECEB522}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3C0720EF-680A-48BE-B236-E3B433418011}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
   <si>
     <t>Entity</t>
   </si>
@@ -498,6 +498,24 @@
   </si>
   <si>
     <t>Arjun Prasad</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>ins_id</t>
+  </si>
+  <si>
+    <t>bpc</t>
+  </si>
+  <si>
+    <t>rpc</t>
+  </si>
+  <si>
+    <t>mid</t>
   </si>
 </sst>
 </file>
@@ -740,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -801,6 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2014,7 +2033,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2023,6 +2042,7 @@
     <col min="2" max="2" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2030,7 +2050,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>114</v>
@@ -2050,6 +2070,12 @@
         <v>101</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
@@ -2063,6 +2089,12 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2074,6 +2106,12 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2085,6 +2123,12 @@
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2096,6 +2140,12 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2106,6 +2156,12 @@
       </c>
       <c r="C7">
         <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2115,10 +2171,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D9E36A-EA4D-4C84-A5BD-C5A3D40AC897}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2130,9 +2186,9 @@
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>122</v>
@@ -2145,6 +2201,129 @@
       </c>
       <c r="E1" s="23" t="s">
         <v>129</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10001</v>
+      </c>
+      <c r="B2">
+        <v>105696</v>
+      </c>
+      <c r="C2" s="30">
+        <v>35350</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="B3">
+        <v>456987</v>
+      </c>
+      <c r="C3" s="30">
+        <v>34467</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4">
+        <v>124598</v>
+      </c>
+      <c r="C4" s="30">
+        <v>32975</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10004</v>
+      </c>
+      <c r="B5">
+        <v>453128</v>
+      </c>
+      <c r="C5" s="30">
+        <v>31552</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+      <c r="B6">
+        <v>789641</v>
+      </c>
+      <c r="C6" s="30">
+        <v>31789</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10006</v>
+      </c>
+      <c r="B7">
+        <v>154987</v>
+      </c>
+      <c r="C7" s="30">
+        <v>36234</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2156,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED7AA6C-DF0C-47E8-910E-39CC8EA027EE}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2173,7 +2352,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>9</v>
@@ -2262,7 +2441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,7 +2453,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>55</v>
@@ -2345,10 +2524,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1296F9DC-48FF-4178-BE0E-580EF6C5F897}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F7" sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2359,9 +2538,9 @@
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>107</v>
@@ -2372,8 +2551,12 @@
       <c r="D1" s="20" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2386,8 +2569,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2400,8 +2586,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2414,8 +2603,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2428,8 +2620,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2442,8 +2637,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2456,201 +2654,13 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1007</v>
-      </c>
-      <c r="B8">
-        <v>10007</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1008</v>
-      </c>
-      <c r="B9">
-        <v>10008</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1009</v>
-      </c>
-      <c r="B10">
-        <v>10009</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1010</v>
-      </c>
-      <c r="B11">
-        <v>10010</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1011</v>
-      </c>
-      <c r="B12">
-        <v>10011</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1012</v>
-      </c>
-      <c r="B13">
-        <v>10012</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1013</v>
-      </c>
-      <c r="B14">
-        <v>10013</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1014</v>
-      </c>
-      <c r="B15">
-        <v>10014</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1015</v>
-      </c>
-      <c r="B16">
-        <v>10015</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1016</v>
-      </c>
-      <c r="B17">
-        <v>10016</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1017</v>
-      </c>
-      <c r="B18">
-        <v>10017</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1018</v>
-      </c>
-      <c r="B19">
-        <v>10018</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1019</v>
-      </c>
-      <c r="B20">
-        <v>10019</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1020</v>
-      </c>
-      <c r="B21">
-        <v>10020</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
+      <c r="E7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
